--- a/Profit Amount/sample_sales_data.xlsx
+++ b/Profit Amount/sample_sales_data.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Profit Amount\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234B9AA9-275A-40C4-981F-843EA11BA87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -36,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -422,19 +417,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B350"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="H353" sqref="H353"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="D351" sqref="D351"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2540199</v>
       </c>
@@ -450,7 +445,7 @@
         <v>2407.8000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2960184</v>
       </c>
@@ -458,7 +453,7 @@
         <v>15151.990000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2960222</v>
       </c>
@@ -466,63 +461,63 @@
         <v>12121.592000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>7427213</v>
       </c>
       <c r="B5" s="1">
-        <v>4870.2432000000008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>4903.2832000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>7428213</v>
       </c>
       <c r="B6" s="1">
-        <v>6618.5832000000009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>6651.6232000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7600184</v>
       </c>
       <c r="B7" s="1">
-        <v>5035.1900000000032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>5082.3900000000031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7600203</v>
       </c>
       <c r="B8" s="1">
-        <v>2711.8956000000012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>2740.2156000000014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7670213</v>
       </c>
       <c r="B9" s="1">
-        <v>3621.2580000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>3654.2980000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7688203</v>
       </c>
       <c r="B10" s="1">
-        <v>3103.4880000000012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>3131.8080000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7688213</v>
       </c>
       <c r="B11" s="1">
-        <v>3623.3336000000018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>3656.3736000000017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2557195</v>
       </c>
@@ -530,7 +525,7 @@
         <v>3694.7400000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2918175</v>
       </c>
@@ -538,7 +533,7 @@
         <v>2774.6740000000013</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>7209213</v>
       </c>
@@ -546,7 +541,7 @@
         <v>12523.686000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2953213</v>
       </c>
@@ -554,15 +549,15 @@
         <v>10219.398000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2968213</v>
       </c>
       <c r="B16" s="1">
-        <v>4389.4808000000012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>4422.5208000000011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4943184</v>
       </c>
@@ -570,7 +565,7 @@
         <v>5933.2000000000044</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7205222</v>
       </c>
@@ -578,39 +573,39 @@
         <v>6464.0800000000045</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>7420213</v>
       </c>
       <c r="B19" s="1">
-        <v>5137.6500000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>4807.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>7420222</v>
       </c>
       <c r="B20" s="1">
-        <v>5872.3200000000033</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>5494.720000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>7421234</v>
       </c>
       <c r="B21" s="1">
-        <v>7899.8400000000065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>7427.8400000000056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>7477203</v>
       </c>
       <c r="B22" s="1">
-        <v>3893.5440000000021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>3921.8640000000019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>7232184</v>
       </c>
@@ -618,7 +613,7 @@
         <v>5139.8760000000029</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>7481184</v>
       </c>
@@ -626,15 +621,15 @@
         <v>6052.4300000000039</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>7638234</v>
       </c>
       <c r="B25" s="1">
-        <v>6609.7600000000048</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>6656.9600000000046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2972184</v>
       </c>
@@ -642,7 +637,7 @@
         <v>11400.000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2586184</v>
       </c>
@@ -650,7 +645,7 @@
         <v>15362.820000000012</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>7267234</v>
       </c>
@@ -658,7 +653,7 @@
         <v>16048.19000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>7264222</v>
       </c>
@@ -666,7 +661,7 @@
         <v>5663.8816000000043</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>7265234</v>
       </c>
@@ -674,31 +669,31 @@
         <v>10241.952000000008</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>7677282</v>
       </c>
       <c r="B31" s="1">
-        <v>2696.2600000000007</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>2722.2200000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>7677283</v>
       </c>
       <c r="B32" s="1">
-        <v>3882.0600000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>3919.82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>7677184</v>
       </c>
       <c r="B33" s="1">
-        <v>5110.9600000000046</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>5158.1600000000044</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2896150</v>
       </c>
@@ -706,7 +701,7 @@
         <v>2500.16</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2896185</v>
       </c>
@@ -714,271 +709,271 @@
         <v>2749.9500000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2927152</v>
       </c>
       <c r="B36" s="1">
-        <v>4824.6119999999992</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>4867.0919999999987</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2927184</v>
       </c>
       <c r="B37" s="1">
-        <v>5360.6800000000039</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>5407.8800000000037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2933156</v>
       </c>
       <c r="B38" s="1">
-        <v>4120.5280000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>4158.2879999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1404184</v>
       </c>
       <c r="B39" s="1">
-        <v>5437.2400000000034</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>5484.4400000000032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>1404234</v>
       </c>
       <c r="B40" s="1">
-        <v>5360.5600000000031</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>5407.7600000000029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>1404242</v>
       </c>
       <c r="B41" s="1">
-        <v>2668.9200000000019</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>2692.5200000000018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1404265</v>
       </c>
       <c r="B42" s="1">
-        <v>5283.5900000000047</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>5330.7900000000045</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>5034184</v>
       </c>
       <c r="B43" s="1">
-        <v>4058.200000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>3893.0000000000023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>5034203</v>
       </c>
       <c r="B44" s="1">
-        <v>2404.4300000000012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>2305.3100000000013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>5034229</v>
       </c>
       <c r="B45" s="1">
-        <v>4058.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>3892.9999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>7231256</v>
       </c>
       <c r="B46" s="1">
-        <v>3654.3375000000015</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>3689.7375000000015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>7429184</v>
       </c>
       <c r="B47" s="1">
-        <v>5200.2500000000036</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>5247.4500000000035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>7429240</v>
       </c>
       <c r="B48" s="1">
-        <v>5191.95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>5239.1499999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>7429244</v>
       </c>
       <c r="B49" s="1">
-        <v>5911.9359999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>6280.0959999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>7429297</v>
       </c>
       <c r="B50" s="1">
-        <v>1793.0075000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>1809.5275000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>7430184</v>
       </c>
       <c r="B51" s="1">
-        <v>5468.480000000005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>5515.6800000000048</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>7430234</v>
       </c>
       <c r="B52" s="1">
-        <v>5026.810000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>5074.0100000000039</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>7430240</v>
       </c>
       <c r="B53" s="1">
-        <v>5144.8100000000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>5192.01</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>7430296</v>
       </c>
       <c r="B54" s="1">
-        <v>1680.114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>1704.894</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>7430297</v>
       </c>
       <c r="B55" s="1">
-        <v>1721.414</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>1746.194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>7434256</v>
       </c>
       <c r="B56" s="1">
-        <v>3672.3525000000027</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>3707.7525000000028</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>7436184</v>
       </c>
       <c r="B57" s="1">
-        <v>5344.7500000000036</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>5391.9500000000044</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7436229</v>
       </c>
       <c r="B58" s="1">
-        <v>5533.55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>5580.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>7436250</v>
       </c>
       <c r="B59" s="1">
-        <v>1911.8632</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>1929.5632000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>7436253</v>
       </c>
       <c r="B60" s="1">
-        <v>3760.8525000000004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>3796.2525000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>7470184</v>
       </c>
       <c r="B61" s="1">
-        <v>4714.930000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>4667.7300000000032</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>7470251</v>
       </c>
       <c r="B62" s="1">
-        <v>1705.253300000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>1661.003300000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>7470256</v>
       </c>
       <c r="B63" s="1">
-        <v>3221.4075000000021</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>3309.9075000000021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>7472184</v>
       </c>
       <c r="B64" s="1">
-        <v>4634.4320000000034</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>4398.4320000000025</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>7472203</v>
       </c>
       <c r="B65" s="1">
-        <v>2734.2000000000012</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>2592.6000000000013</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>7472234</v>
       </c>
       <c r="B66" s="1">
-        <v>4454.814000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>4289.6140000000032</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>7472251</v>
       </c>
       <c r="B67" s="1">
-        <v>1597.0959000000009</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>1535.1459000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>7472256</v>
       </c>
       <c r="B68" s="1">
-        <v>3150.6575000000012</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>3026.7575000000011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>7485174</v>
       </c>
@@ -986,103 +981,103 @@
         <v>4751.1360000000032</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>7485184</v>
       </c>
       <c r="B70" s="1">
-        <v>4278.0760000000037</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>4325.2760000000035</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>7485234</v>
       </c>
       <c r="B71" s="1">
-        <v>3991.8220000000028</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>4015.4220000000028</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>7485242</v>
       </c>
       <c r="B72" s="1">
-        <v>1950.5300000000013</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>1962.3300000000013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>7485251</v>
       </c>
       <c r="B73" s="1">
-        <v>1474.7244000000012</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>1483.5744000000011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>7485265</v>
       </c>
       <c r="B74" s="1">
-        <v>3803.970000000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>3827.5700000000029</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>7489184</v>
       </c>
       <c r="B75" s="1">
-        <v>5154.3100000000049</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>5201.5100000000048</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>7489203</v>
       </c>
       <c r="B76" s="1">
-        <v>3066.0500000000011</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>3094.3700000000013</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>7489234</v>
       </c>
       <c r="B77" s="1">
-        <v>5084.3700000000035</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>5131.5700000000033</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>7489241</v>
       </c>
       <c r="B78" s="1">
-        <v>2400.9200000000005</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>2424.5200000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>7489250</v>
       </c>
       <c r="B79" s="1">
-        <v>1808.7528</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>1826.4528</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>7489253</v>
       </c>
       <c r="B80" s="1">
-        <v>3565.5800000000004</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>3600.9800000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>7489265</v>
       </c>
       <c r="B81" s="1">
-        <v>4855.9500000000035</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>4903.1500000000033</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7494174</v>
       </c>
@@ -1090,7 +1085,7 @@
         <v>5703.104000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>7494184</v>
       </c>
@@ -1098,7 +1093,7 @@
         <v>5285.9400000000041</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>7494234</v>
       </c>
@@ -1106,7 +1101,7 @@
         <v>5276.1600000000035</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>7494242</v>
       </c>
@@ -1114,7 +1109,7 @@
         <v>2616.2010000000009</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>7494251</v>
       </c>
@@ -1122,7 +1117,7 @@
         <v>1973.5200000000013</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>7494265</v>
       </c>
@@ -1130,15 +1125,15 @@
         <v>5220.1800000000048</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>7505195</v>
       </c>
       <c r="B88" s="1">
-        <v>2389.0871999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>2412.6871999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>7530228</v>
       </c>
@@ -1146,111 +1141,111 @@
         <v>6150.0599999999986</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>7556184</v>
       </c>
       <c r="B90" s="1">
-        <v>5212.7400000000034</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>5259.9400000000032</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>7556203</v>
       </c>
       <c r="B91" s="1">
-        <v>2563.6860000000011</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>2592.0060000000008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>7556204</v>
       </c>
       <c r="B92" s="1">
-        <v>2563.6859999999997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>2592.0059999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>7556234</v>
       </c>
       <c r="B93" s="1">
-        <v>4866.8000000000047</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>4914.0000000000045</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>7556241</v>
       </c>
       <c r="B94" s="1">
-        <v>2106.6799999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>2130.2799999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>7556242</v>
       </c>
       <c r="B95" s="1">
-        <v>2106.6800000000007</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>2130.2800000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>7556250</v>
       </c>
       <c r="B96" s="1">
-        <v>1575.0935999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>1592.7936</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>7556251</v>
       </c>
       <c r="B97" s="1">
-        <v>1575.0936000000011</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>1592.7936000000011</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>7556253</v>
       </c>
       <c r="B98" s="1">
-        <v>3021.8775000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>3057.2775000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>7556265</v>
       </c>
       <c r="B99" s="1">
-        <v>4253.7800000000025</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>4300.9800000000023</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>7577174</v>
       </c>
       <c r="B100" s="1">
-        <v>5380.2560000000021</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>5427.456000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>7577184</v>
       </c>
       <c r="B101" s="1">
-        <v>5213.9000000000033</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>5261.100000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>7577203</v>
       </c>
       <c r="B102" s="1">
-        <v>2872.7300000000014</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>2901.0500000000015</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>7577234</v>
       </c>
@@ -1258,223 +1253,223 @@
         <v>4550.2800000000025</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>7577242</v>
       </c>
       <c r="B104" s="1">
-        <v>2261.1200000000008</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>2284.7200000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>7577251</v>
       </c>
       <c r="B105" s="1">
-        <v>1695.7330000000011</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>1713.4330000000011</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>7577256</v>
       </c>
       <c r="B106" s="1">
-        <v>3471.6375000000025</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>3507.0375000000026</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>7577265</v>
       </c>
       <c r="B107" s="1">
-        <v>4396.2600000000039</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>4443.4600000000037</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2502234</v>
       </c>
       <c r="B108" s="1">
-        <v>4902.9960000000028</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>4950.1960000000036</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2502265</v>
       </c>
       <c r="B109" s="1">
-        <v>4823.5310000000036</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>4870.7310000000034</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2503184</v>
       </c>
       <c r="B110" s="1">
-        <v>5363.5200000000032</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>5410.7200000000039</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>2503234</v>
       </c>
       <c r="B111" s="1">
-        <v>5248.118000000004</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>5295.3180000000038</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>2503265</v>
       </c>
       <c r="B112" s="1">
-        <v>5176.5300000000034</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>5223.7300000000041</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>4906175</v>
       </c>
       <c r="B113" s="1">
-        <v>2758.3920000000007</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>2781.9920000000011</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>4906184</v>
       </c>
       <c r="B114" s="1">
-        <v>5283.4500000000044</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>5330.6500000000042</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>4906234</v>
       </c>
       <c r="B115" s="1">
-        <v>5143.0200000000032</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>5190.220000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>7511184</v>
       </c>
       <c r="B116" s="1">
-        <v>5344.4200000000037</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>5391.6200000000026</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>7511234</v>
       </c>
       <c r="B117" s="1">
-        <v>5050.2000000000035</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>5097.4000000000033</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>7511240</v>
       </c>
       <c r="B118" s="1">
-        <v>5050.2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>5097.3999999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>7511251</v>
       </c>
       <c r="B119" s="1">
-        <v>1867.5108000000009</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>1885.2108000000012</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>7511269</v>
       </c>
       <c r="B120" s="1">
-        <v>4597.68</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>4644.88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>7515184</v>
       </c>
       <c r="B121" s="1">
-        <v>5977.7100000000046</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>6024.9100000000053</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>7515240</v>
       </c>
       <c r="B122" s="1">
-        <v>5636.4000000000005</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>5683.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>7515265</v>
       </c>
       <c r="B123" s="1">
-        <v>5194.6050000000032</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>5241.8050000000039</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>7515269</v>
       </c>
       <c r="B124" s="1">
-        <v>5194.6049999999996</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>5241.8050000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>3723213</v>
       </c>
       <c r="B125" s="1">
-        <v>3169.5656000000013</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>3202.6056000000012</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>3725213</v>
       </c>
       <c r="B126" s="1">
-        <v>2488.8280000000009</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>2505.3480000000009</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>4950184</v>
       </c>
       <c r="B127" s="1">
-        <v>4626.8800000000037</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>4674.0800000000045</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>4950234</v>
       </c>
       <c r="B128" s="1">
-        <v>4061.0400000000031</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>4108.2400000000034</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>4950269</v>
       </c>
       <c r="B129" s="1">
-        <v>3984.9520000000011</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>4032.152000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>7553213</v>
       </c>
       <c r="B130" s="1">
-        <v>2985.6484000000009</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>3018.6884000000009</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>7554251</v>
       </c>
@@ -1482,7 +1477,7 @@
         <v>2030.0700000000013</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>7554252</v>
       </c>
@@ -1490,31 +1485,31 @@
         <v>2303.56</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>7563250</v>
       </c>
       <c r="B133" s="1">
-        <v>1524.5204999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>1542.2204999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>7227251</v>
       </c>
       <c r="B134" s="1">
-        <v>1766.8660000000013</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>1828.8160000000014</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>7227252</v>
       </c>
       <c r="B135" s="1">
-        <v>1993.2499999999995</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>2013.3099999999995</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>7651265</v>
       </c>
@@ -1522,7 +1517,7 @@
         <v>4421.3616000000029</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>7586234</v>
       </c>
@@ -1530,7 +1525,7 @@
         <v>4419.8784000000023</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>7586242</v>
       </c>
@@ -1538,7 +1533,7 @@
         <v>2177.3934000000008</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>7586265</v>
       </c>
@@ -1546,63 +1541,63 @@
         <v>4267.1872000000021</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>7226184</v>
       </c>
       <c r="B140" s="1">
-        <v>5018.3500000000049</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>5065.5500000000047</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>7226251</v>
       </c>
       <c r="B141" s="1">
-        <v>1904.2137000000012</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>1921.9137000000012</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>2824152</v>
       </c>
       <c r="B142" s="1">
-        <v>4282.9700000000012</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>4325.45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>2824184</v>
       </c>
       <c r="B143" s="1">
-        <v>4753.7320000000027</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>4800.9320000000034</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>2825185</v>
       </c>
       <c r="B144" s="1">
-        <v>2456.0000000000009</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>4745.2000000000016</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>2825258</v>
       </c>
       <c r="B145" s="1">
-        <v>3635.9999999999991</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>5925.1999999999989</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2825022</v>
       </c>
       <c r="B146" s="1">
-        <v>4348.5000000000009</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>7095.54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>2825195</v>
       </c>
@@ -1610,7 +1605,7 @@
         <v>6438.6</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>2825030</v>
       </c>
@@ -1618,303 +1613,303 @@
         <v>7203</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>2828152</v>
       </c>
       <c r="B149" s="1">
-        <v>5261.5280000000002</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>5304.0079999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>2828184</v>
       </c>
       <c r="B150" s="1">
-        <v>5778.0160000000042</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>5825.2160000000049</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>2828229</v>
       </c>
       <c r="B151" s="1">
-        <v>5896.0159999999996</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>5943.2160000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>2828230</v>
       </c>
       <c r="B152" s="1">
-        <v>5367.728000000001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>5410.2080000000005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>2829152</v>
       </c>
       <c r="B153" s="1">
-        <v>5261.5280000000002</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>5304.0079999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>2829184</v>
       </c>
       <c r="B154" s="1">
-        <v>5778.0160000000042</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>5825.2160000000049</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2829229</v>
       </c>
       <c r="B155" s="1">
-        <v>5896.0159999999996</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>5943.2160000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>2829230</v>
       </c>
       <c r="B156" s="1">
-        <v>5367.728000000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>5410.2080000000005</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>2830230</v>
       </c>
       <c r="B157" s="1">
-        <v>5367.728000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>5410.2080000000005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>2830229</v>
       </c>
       <c r="B158" s="1">
-        <v>5896.0159999999996</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>5943.2160000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>2885036</v>
       </c>
       <c r="B159" s="1">
-        <v>4253.2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>4281.5199999999995</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>2889156</v>
       </c>
       <c r="B160" s="1">
-        <v>3875.48</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>3913.2400000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>2924152</v>
       </c>
       <c r="B161" s="1">
-        <v>4370.5599999999995</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>4413.04</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>2924184</v>
       </c>
       <c r="B162" s="1">
-        <v>4855.6000000000022</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>4902.800000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>2924229</v>
       </c>
       <c r="B163" s="1">
-        <v>5138.7999999999993</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>5185.9999999999991</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>2924230</v>
       </c>
       <c r="B164" s="1">
-        <v>4625.4399999999996</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>4667.92</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>2931184</v>
       </c>
       <c r="B165" s="1">
-        <v>5076.2100000000037</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>5123.4100000000035</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>2931225</v>
       </c>
       <c r="B166" s="1">
-        <v>6216.6560000000009</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>6273.2960000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>2931229</v>
       </c>
       <c r="B167" s="1">
-        <v>5194.2099999999991</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>5241.41</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>2936152</v>
       </c>
       <c r="B168" s="1">
-        <v>4369.0679999999993</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>4411.5479999999989</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>2936229</v>
       </c>
       <c r="B169" s="1">
-        <v>4843.2800000000007</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>4890.4800000000005</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>2936230</v>
       </c>
       <c r="B170" s="1">
-        <v>4369.0679999999993</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>4411.5479999999989</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>2944229</v>
       </c>
       <c r="B171" s="1">
-        <v>5579.6500000000005</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>5626.8499999999995</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>2944230</v>
       </c>
       <c r="B172" s="1">
-        <v>5026.5859999999993</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>5069.0659999999989</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>2949184</v>
       </c>
       <c r="B173" s="1">
-        <v>7690.0000000000055</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>7737.2000000000062</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>2971195</v>
       </c>
       <c r="B174" s="1">
-        <v>2613.7231999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>2637.3231999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>2971225</v>
       </c>
       <c r="B175" s="1">
-        <v>6481.02</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>6537.6600000000017</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>2967204</v>
       </c>
       <c r="B176" s="1">
-        <v>3860.9012000000007</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>3889.2212000000009</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>2967213</v>
       </c>
       <c r="B177" s="1">
-        <v>4329.4200000000019</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>4362.4600000000019</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>2967111</v>
       </c>
       <c r="B178" s="1">
-        <v>4329.420000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>4445.0600000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>2967184</v>
       </c>
       <c r="B179" s="1">
-        <v>6735.3740000000043</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>6782.5740000000042</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>7211213</v>
       </c>
       <c r="B180" s="1">
-        <v>4164.1792000000005</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>4197.2192000000005</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>7271213</v>
       </c>
       <c r="B181" s="1">
-        <v>7025.872000000003</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>6166.8320000000031</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>7271111</v>
       </c>
       <c r="B182" s="1">
-        <v>7025.8720000000012</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>6166.8320000000012</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>7275185</v>
       </c>
       <c r="B183" s="1">
-        <v>7220.8000000000038</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>7244.4000000000033</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>7275111</v>
       </c>
       <c r="B184" s="1">
-        <v>10106.5424</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>10139.582399999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>7275220</v>
       </c>
       <c r="B185" s="1">
-        <v>11550.7024</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>11588.4624</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>2900103</v>
       </c>
@@ -1922,7 +1917,7 @@
         <v>4146.1200000000008</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>2900125</v>
       </c>
@@ -1930,7 +1925,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>2900145</v>
       </c>
@@ -1938,7 +1933,7 @@
         <v>3598.12</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>2900165</v>
       </c>
@@ -1946,7 +1941,7 @@
         <v>1485.2720000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>2900175</v>
       </c>
@@ -1954,7 +1949,7 @@
         <v>2931.2960000000012</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>2900184</v>
       </c>
@@ -1962,175 +1957,175 @@
         <v>5741.9880000000039</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>7701341</v>
       </c>
       <c r="B192" s="1">
-        <v>5156.7884000000022</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>5203.988400000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>7705303</v>
       </c>
       <c r="B193" s="1">
-        <v>3040.0999999999995</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>2981.0999999999995</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>7705313</v>
       </c>
       <c r="B194" s="1">
-        <v>3026.3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>2967.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>7705327</v>
       </c>
       <c r="B195" s="1">
-        <v>3560.8560000000016</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>3490.0560000000014</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>7705337</v>
       </c>
       <c r="B196" s="1">
-        <v>3511.5699999999993</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>3440.7699999999995</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>7705339</v>
       </c>
       <c r="B197" s="1">
-        <v>1424.3370000000002</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>1394.8370000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>7705340</v>
       </c>
       <c r="B198" s="1">
-        <v>3320.6740000000004</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>2789.6740000000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>7705341</v>
       </c>
       <c r="B199" s="1">
-        <v>5246.8000000000029</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>5128.8000000000029</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>7727303</v>
       </c>
       <c r="B200" s="1">
-        <v>3304.6819999999998</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>3245.6819999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>7727313</v>
       </c>
       <c r="B201" s="1">
-        <v>3129.0700000000006</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>3070.07</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>7727327</v>
       </c>
       <c r="B202" s="1">
-        <v>3657.7680000000014</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>3586.9680000000017</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>7727337</v>
       </c>
       <c r="B203" s="1">
-        <v>3546.9779999999996</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>3476.1779999999994</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>7727341</v>
       </c>
       <c r="B204" s="1">
-        <v>5671.5100000000029</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>5553.5100000000029</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>7849303</v>
       </c>
       <c r="B205" s="1">
-        <v>3325.72</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>3266.72</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>7849313</v>
       </c>
       <c r="B206" s="1">
-        <v>3263.96</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
+        <v>3794.96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>7849327</v>
       </c>
       <c r="B207" s="1">
-        <v>3827.5200000000009</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>3756.7200000000012</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>7849337</v>
       </c>
       <c r="B208" s="1">
-        <v>3790.498</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>3719.6980000000003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>7849340</v>
       </c>
       <c r="B209" s="1">
-        <v>3646.7150000000001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>3056.7150000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>7849341</v>
       </c>
       <c r="B210" s="1">
-        <v>6017.4900000000025</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>5899.4900000000025</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>7849343</v>
       </c>
       <c r="B211" s="1">
-        <v>2151.6400000000003</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+        <v>2110.34</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>7849344</v>
       </c>
       <c r="B212" s="1">
-        <v>3045.5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>2986.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>7903303</v>
       </c>
@@ -2138,15 +2133,15 @@
         <v>3848.04</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>7903313</v>
       </c>
       <c r="B214" s="1">
-        <v>3197.7999999999997</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+        <v>3138.8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>7903327</v>
       </c>
@@ -2154,7 +2149,7 @@
         <v>4462.9200000000019</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>7903337</v>
       </c>
@@ -2162,7 +2157,7 @@
         <v>4426.655999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>7903339</v>
       </c>
@@ -2170,7 +2165,7 @@
         <v>1834.4300000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>7903343</v>
       </c>
@@ -2178,7 +2173,7 @@
         <v>2554.335</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>7903344</v>
       </c>
@@ -2186,7 +2181,7 @@
         <v>3618.83</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>7903341</v>
       </c>
@@ -2194,7 +2189,7 @@
         <v>7059.6900000000023</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>2909165</v>
       </c>
@@ -2202,7 +2197,7 @@
         <v>1759.12</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>2909175</v>
       </c>
@@ -2210,7 +2205,7 @@
         <v>3401.3280000000013</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>6488184</v>
       </c>
@@ -2218,7 +2213,7 @@
         <v>2500.0000000000018</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>6489184</v>
       </c>
@@ -2226,7 +2221,7 @@
         <v>2025.0000000000014</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>7584165</v>
       </c>
@@ -2234,7 +2229,7 @@
         <v>1575.6</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>7584175</v>
       </c>
@@ -2242,7 +2237,7 @@
         <v>3151.3720000000017</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>7584184</v>
       </c>
@@ -2250,7 +2245,7 @@
         <v>5752.7600000000039</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>7584185</v>
       </c>
@@ -2258,7 +2253,7 @@
         <v>2876.3800000000015</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>7607185</v>
       </c>
@@ -2266,7 +2261,7 @@
         <v>2076.3000000000011</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>2914165</v>
       </c>
@@ -2274,7 +2269,7 @@
         <v>2257.1640000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>2914175</v>
       </c>
@@ -2282,7 +2277,7 @@
         <v>4325.8480000000027</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>7607184</v>
       </c>
@@ -2290,7 +2285,7 @@
         <v>4152.6000000000031</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>3001265</v>
       </c>
@@ -2298,7 +2293,7 @@
         <v>3010.3590000000022</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>3002265</v>
       </c>
@@ -2306,23 +2301,23 @@
         <v>3077.0238000000031</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>3006234</v>
       </c>
       <c r="B235" s="1">
-        <v>3515.6192000000024</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
+        <v>3421.2192000000023</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>3006265</v>
       </c>
       <c r="B236" s="1">
-        <v>3265.5360000000014</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+        <v>3171.1360000000013</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>3020265</v>
       </c>
@@ -2330,15 +2325,15 @@
         <v>4322.247400000002</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>3614265</v>
       </c>
       <c r="B238" s="1">
-        <v>4273.1100000000033</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
+        <v>4225.9100000000035</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>3617265</v>
       </c>
@@ -2346,15 +2341,15 @@
         <v>4345.1097000000036</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>3040265</v>
       </c>
       <c r="B240" s="1">
-        <v>2572.5000000000018</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>2619.7000000000016</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>3057265</v>
       </c>
@@ -2362,7 +2357,7 @@
         <v>5587.1136000000033</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>3059265</v>
       </c>
@@ -2370,7 +2365,7 @@
         <v>4834.7899000000034</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>3064265</v>
       </c>
@@ -2378,7 +2373,7 @@
         <v>5408.2028000000037</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>3084265</v>
       </c>
@@ -2386,7 +2381,7 @@
         <v>3562.2280000000023</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>4501265</v>
       </c>
@@ -2394,7 +2389,7 @@
         <v>3474.7018000000021</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>7403265</v>
       </c>
@@ -2402,7 +2397,7 @@
         <v>3730.8540000000021</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>3077184</v>
       </c>
@@ -2410,7 +2405,7 @@
         <v>6694.5000000000064</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>3060265</v>
       </c>
@@ -2418,7 +2413,7 @@
         <v>6515.9800000000041</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>4929242</v>
       </c>
@@ -2426,7 +2421,7 @@
         <v>3927.4400000000019</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>4929256</v>
       </c>
@@ -2434,7 +2429,7 @@
         <v>5342.211000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>7886339</v>
       </c>
@@ -2442,7 +2437,7 @@
         <v>1941.405</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>7886341</v>
       </c>
@@ -2450,7 +2445,7 @@
         <v>7622.8040000000037</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>2485254</v>
       </c>
@@ -2458,7 +2453,7 @@
         <v>7109.5589999999984</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>7330242</v>
       </c>
@@ -2466,7 +2461,7 @@
         <v>586.25000000000023</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>7330265</v>
       </c>
@@ -2474,764 +2469,772 @@
         <v>1137.5000000000007</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>2874152</v>
       </c>
       <c r="B256" s="1">
-        <v>2913.97</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+        <v>3020.7200000000003</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>2874184</v>
       </c>
       <c r="B257" s="1">
-        <v>3238.3680000000027</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+        <v>3355.9680000000026</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>7364184</v>
       </c>
       <c r="B258" s="1">
-        <v>3331.0000000000027</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
+        <v>3449.0000000000023</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>7364203</v>
       </c>
       <c r="B259" s="1">
-        <v>1998.4320000000009</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
+        <v>2069.3880000000008</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>7364234</v>
       </c>
       <c r="B260" s="1">
-        <v>3330.7200000000021</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
+        <v>3448.9800000000023</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>7364242</v>
       </c>
       <c r="B261" s="1">
-        <v>1665.4000000000008</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
+        <v>1724.5250000000008</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>7364251</v>
       </c>
       <c r="B262" s="1">
-        <v>1249.0200000000009</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>1293.367500000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>7364256</v>
       </c>
       <c r="B263" s="1">
-        <v>2498.1000000000017</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+        <v>2586.7875000000017</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>7364265</v>
       </c>
       <c r="B264" s="1">
-        <v>3330.8000000000025</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+        <v>3449.0500000000025</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>7370184</v>
       </c>
       <c r="B265" s="1">
-        <v>3660.0000000000027</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
+        <v>3778.2000000000025</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>7370234</v>
       </c>
       <c r="B266" s="1">
-        <v>3660.0000000000023</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
+        <v>3777.7300000000027</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>7370242</v>
       </c>
       <c r="B267" s="1">
-        <v>1829.930000000001</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
+        <v>1889.1400000000008</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>7370251</v>
       </c>
       <c r="B268" s="1">
-        <v>1372.4475000000009</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
+        <v>1416.8550000000009</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>7370256</v>
       </c>
       <c r="B269" s="1">
-        <v>2744.8950000000018</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
+        <v>2833.7100000000019</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>7376184</v>
       </c>
       <c r="B270" s="1">
-        <v>3277.800000000002</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>3396.0600000000022</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>7376251</v>
       </c>
       <c r="B271" s="1">
-        <v>1229.3400000000008</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
+        <v>1273.650000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
+        <v>2502184</v>
+      </c>
+      <c r="B272" s="1">
+        <v>5057.3100000000031</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>2502174</v>
+      </c>
+      <c r="B273" s="1">
+        <v>5419.1600000000026</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
         <v>2960401</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B274" s="1">
         <v>147440.99999999997</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="1">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>2960401</v>
+      </c>
+      <c r="B275" s="1">
+        <v>147440.99999999997</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
         <v>7427401</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B276" s="1">
         <v>74340</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="1">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
         <v>7428401</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B277" s="1">
         <v>82517.399999999994</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="1">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
         <v>7670401</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B278" s="1">
         <v>54515.999999999993</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="1">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
         <v>7688401</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B279" s="1">
         <v>57737.4</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="1">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
         <v>2968401</v>
       </c>
-      <c r="B277" s="1">
+      <c r="B280" s="1">
         <v>64428</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="1">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
         <v>7205401</v>
       </c>
-      <c r="B278" s="1">
+      <c r="B281" s="1">
         <v>85491</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="1">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
         <v>7420401</v>
       </c>
-      <c r="B279" s="1">
+      <c r="B282" s="1">
         <v>79791.599999999991</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="1">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
         <v>7421401</v>
       </c>
-      <c r="B280" s="1">
+      <c r="B283" s="1">
         <v>90199.2</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="1">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
         <v>7477401</v>
       </c>
-      <c r="B281" s="1">
+      <c r="B284" s="1">
         <v>66658.2</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="1">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
         <v>7209401</v>
       </c>
-      <c r="B282" s="1">
+      <c r="B285" s="1">
         <v>193036.19999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="1">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
         <v>7202271</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B286" s="1">
         <v>18142.5</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
-      <c r="A284" s="1">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
         <v>7206271</v>
       </c>
-      <c r="B284" s="1">
+      <c r="B287" s="1">
         <v>17098.2</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="1">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
         <v>7207271</v>
       </c>
-      <c r="B285" s="1">
+      <c r="B288" s="1">
         <v>15558.3</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
-      <c r="A286" s="1">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
         <v>7208271</v>
       </c>
-      <c r="B286" s="1">
+      <c r="B289" s="1">
         <v>16756</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
-      <c r="A287" s="1">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
         <v>7202401</v>
       </c>
-      <c r="B287" s="1">
+      <c r="B290" s="1">
         <v>76198.5</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
-      <c r="A288" s="1">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
         <v>7206401</v>
       </c>
-      <c r="B288" s="1">
+      <c r="B291" s="1">
         <v>71812.44</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
-      <c r="A289" s="1">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
         <v>7207401</v>
       </c>
-      <c r="B289" s="1">
+      <c r="B292" s="1">
         <v>65344.86</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
-      <c r="A290" s="1">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
         <v>7208401</v>
       </c>
-      <c r="B290" s="1">
+      <c r="B293" s="1">
         <v>70375.199999999997</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
-      <c r="A291" s="1">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
         <v>7264401</v>
       </c>
-      <c r="B291" s="1">
+      <c r="B294" s="1">
         <v>71862</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="1">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
         <v>7267401</v>
       </c>
-      <c r="B292" s="1">
+      <c r="B295" s="1">
         <v>166769.4</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="1">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
         <v>7265401</v>
       </c>
-      <c r="B293" s="1">
+      <c r="B296" s="1">
         <v>104819.4</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="1">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
         <v>1301401</v>
       </c>
-      <c r="B294" s="1">
-        <v>45347.4</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="1">
+      <c r="B297" s="1">
+        <v>45843</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
         <v>1404401</v>
       </c>
-      <c r="B295" s="1">
-        <v>54515.999999999993</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="1">
+      <c r="B298" s="1">
+        <v>55011.6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
         <v>7436401</v>
       </c>
-      <c r="B296" s="1">
-        <v>58728.599999999991</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="1">
+      <c r="B299" s="1">
+        <v>59224.2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
         <v>7470401</v>
       </c>
-      <c r="B297" s="1">
-        <v>46090.799999999996</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="1">
+      <c r="B300" s="1">
+        <v>46834.2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
         <v>7472401</v>
       </c>
-      <c r="B298" s="1">
-        <v>45843</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="1">
+      <c r="B301" s="1">
+        <v>46338.6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
         <v>7485401</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B302" s="1">
+        <v>43117.2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>7489271</v>
+      </c>
+      <c r="B303" s="1">
+        <v>13275</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>7489401</v>
+      </c>
+      <c r="B304" s="1">
+        <v>55259.399999999994</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>7494401</v>
+      </c>
+      <c r="B305" s="1">
+        <v>53029.2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>7577271</v>
+      </c>
+      <c r="B306" s="1">
+        <v>11918</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>7577401</v>
+      </c>
+      <c r="B307" s="1">
+        <v>49807.799999999996</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>7612401</v>
+      </c>
+      <c r="B308" s="1">
+        <v>50551.199999999997</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>2502401</v>
+      </c>
+      <c r="B309" s="1">
+        <v>51542.400000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>2503401</v>
+      </c>
+      <c r="B310" s="1">
+        <v>56746.2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>4906401</v>
+      </c>
+      <c r="B311" s="1">
         <v>42621.599999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
-      <c r="A300" s="1">
-        <v>7489271</v>
-      </c>
-      <c r="B300" s="1">
-        <v>13157</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="1">
-        <v>7489401</v>
-      </c>
-      <c r="B301" s="1">
-        <v>54763.799999999996</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="1">
-        <v>7494401</v>
-      </c>
-      <c r="B302" s="1">
-        <v>53029.2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" s="1">
-        <v>7577271</v>
-      </c>
-      <c r="B303" s="1">
-        <v>11800</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="1">
-        <v>7577401</v>
-      </c>
-      <c r="B304" s="1">
-        <v>49312.2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="1">
-        <v>7612401</v>
-      </c>
-      <c r="B305" s="1">
-        <v>49807.799999999996</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="1">
-        <v>2502401</v>
-      </c>
-      <c r="B306" s="1">
-        <v>51046.799999999996</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="1">
-        <v>2503401</v>
-      </c>
-      <c r="B307" s="1">
-        <v>56250.600000000006</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="1">
-        <v>4906401</v>
-      </c>
-      <c r="B308" s="1">
-        <v>42126</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="1">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
         <v>4925401</v>
       </c>
-      <c r="B309" s="1">
-        <v>47577.599999999999</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="1">
+      <c r="B312" s="1">
+        <v>48073.2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
         <v>7511401</v>
       </c>
-      <c r="B310" s="1">
-        <v>53277</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="1">
+      <c r="B313" s="1">
+        <v>53772.6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
         <v>7515401</v>
       </c>
-      <c r="B311" s="1">
-        <v>55259.399999999994</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="1">
+      <c r="B314" s="1">
+        <v>55755</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
         <v>4950288</v>
       </c>
-      <c r="B312" s="1">
-        <v>5031.5199999999995</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="1">
+      <c r="B315" s="1">
+        <v>5092.88</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
         <v>4950401</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B316" s="1">
         <v>49064.399999999994</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="1">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
         <v>7651401</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B317" s="1">
         <v>39152.400000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="1">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
         <v>2900401</v>
       </c>
-      <c r="B315" s="1">
-        <v>50185.799999999996</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="1">
+      <c r="B318" s="1">
+        <v>59219.243999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
         <v>2900403</v>
       </c>
-      <c r="B316" s="1">
-        <v>50185.799999999996</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="1">
+      <c r="B319" s="1">
+        <v>59219.243999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
         <v>7701451</v>
       </c>
-      <c r="B317" s="1">
-        <v>49824.32</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="1">
+      <c r="B320" s="1">
+        <v>50253.840000000004</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
         <v>7705451</v>
       </c>
-      <c r="B318" s="1">
-        <v>51542.400000000001</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="1">
+      <c r="B321" s="1">
+        <v>50468.6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
         <v>7727451</v>
       </c>
-      <c r="B319" s="1">
-        <v>68723.199999999997</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="1">
+      <c r="B322" s="1">
+        <v>67649.399999999994</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
         <v>7849451</v>
       </c>
-      <c r="B320" s="1">
-        <v>66575.599999999991</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="1">
+      <c r="B323" s="1">
+        <v>71300.319999999992</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
         <v>7903451</v>
       </c>
-      <c r="B321" s="1">
-        <v>71300.319999999992</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="1">
+      <c r="B324" s="1">
+        <v>70226.51999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
         <v>7584401</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B325" s="1">
         <v>50551.199999999997</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="1">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
         <v>2909401</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B326" s="1">
         <v>63436.799999999996</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="1">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
         <v>7742451</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B327" s="1">
         <v>50683.359999999993</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="1">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
         <v>3040288</v>
       </c>
-      <c r="B325" s="1">
-        <v>3282.7599999999998</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="1">
+      <c r="B328" s="1">
+        <v>3344.12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
         <v>3006271</v>
       </c>
-      <c r="B326" s="1">
-        <v>7964.9999999999991</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="1">
+      <c r="B329" s="1">
+        <v>7847</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
         <v>3006288</v>
       </c>
-      <c r="B327" s="1">
-        <v>4172.4799999999996</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="1">
+      <c r="B330" s="1">
+        <v>4111.12</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
         <v>3001401</v>
       </c>
-      <c r="B328" s="1">
-        <v>29488.199999999997</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="1">
+      <c r="B331" s="1">
+        <v>30479.399999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
         <v>3002401</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B332" s="1">
         <v>31966.2</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="1">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
         <v>3006401</v>
       </c>
-      <c r="B330" s="1">
-        <v>32709.599999999999</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="1">
+      <c r="B333" s="1">
+        <v>32461.799999999996</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
         <v>3007403</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B334" s="1">
         <v>38904.6</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
-      <c r="A332" s="1">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
         <v>3020401</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B335" s="1">
         <v>43365</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="1">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
         <v>3017401</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B336" s="1">
         <v>47329.799999999996</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="1">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
         <v>3019401</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B337" s="1">
         <v>40639.199999999997</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="1">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
         <v>3064401</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B338" s="1">
         <v>44851.799999999996</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="1">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
         <v>3081401</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B339" s="1">
         <v>48568.800000000003</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="1">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
         <v>3082401</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B340" s="1">
         <v>35931</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
-      <c r="A338" s="1">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
         <v>3084401</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B341" s="1">
         <v>35435.399999999994</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="1">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
         <v>3121401</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B342" s="1">
         <v>49560</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="1">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
         <v>3122401</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B343" s="1">
         <v>50798.999999999993</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="1">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
         <v>3614401</v>
       </c>
-      <c r="B341" s="1">
-        <v>42869.399999999994</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="1">
+      <c r="B344" s="1">
+        <v>41878.199999999997</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
         <v>3617401</v>
       </c>
-      <c r="B342" s="1">
+      <c r="B345" s="1">
         <v>43117.2</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
-      <c r="A343" s="1">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
         <v>3923401</v>
       </c>
-      <c r="B343" s="1">
+      <c r="B346" s="1">
         <v>36922.199999999997</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
-      <c r="A344" s="1">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
         <v>4803401</v>
-      </c>
-      <c r="B344" s="1">
-        <v>29736</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" s="1">
-        <v>4811401</v>
-      </c>
-      <c r="B345" s="1">
-        <v>34692</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" s="1">
-        <v>4501401</v>
-      </c>
-      <c r="B346" s="1">
-        <v>32957.4</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="1">
-        <v>7403401</v>
       </c>
       <c r="B347" s="1">
         <v>29736</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
+        <v>4811401</v>
+      </c>
+      <c r="B348" s="1">
+        <v>34692</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>4501401</v>
+      </c>
+      <c r="B349" s="1">
+        <v>32957.4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>7403401</v>
+      </c>
+      <c r="B350" s="1">
+        <v>29736</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
         <v>7330403</v>
       </c>
-      <c r="B348" s="1">
+      <c r="B351" s="1">
         <v>10903.199999999999</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" s="1">
-        <v>2502184</v>
-      </c>
-      <c r="B349" s="1">
-        <v>5010.1100000000033</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" s="1">
-        <v>2502174</v>
-      </c>
-      <c r="B350" s="1">
-        <v>5371.9600000000028</v>
       </c>
     </row>
   </sheetData>
